--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Aplicaciones Hibridas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22275EFA-4D42-4D2E-98D3-8660EDF4F086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACC7E83-CF83-4B0D-AA58-3D7F66AA8A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,25 +559,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="212" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.54296875" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -600,7 +598,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -621,7 +619,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -634,7 +632,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -647,7 +645,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -673,7 +671,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -727,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -738,25 +736,35 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="4">
         <f>SUM(C9:J9)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -767,25 +775,35 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="4">
         <f t="shared" ref="O10:O21" si="0">SUM(C10:J10)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -796,25 +814,35 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -825,25 +853,35 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -854,25 +892,35 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -883,25 +931,35 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -912,25 +970,35 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -941,25 +1009,35 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -970,25 +1048,35 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -999,25 +1087,35 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1028,25 +1126,35 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1057,25 +1165,35 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1086,25 +1204,35 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1115,25 +1243,35 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="4">
         <f t="shared" ref="O22:O23" si="1">SUM(C22:J22)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1144,19 +1282,29 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1164,6 +1312,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="B3:G3"/>
@@ -1176,15 +1333,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACC7E83-CF83-4B0D-AA58-3D7F66AA8A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF39BB8-BD4A-4848-9B1B-C0758D297921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="212" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="198" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,8 +752,12 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="4">
@@ -791,8 +795,12 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="4">
@@ -830,8 +838,12 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="4">
@@ -869,8 +881,12 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="4">
@@ -908,8 +924,12 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="4">
@@ -947,8 +967,12 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="4">
@@ -986,8 +1010,12 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="4">
@@ -1025,8 +1053,12 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="4">
@@ -1064,8 +1096,12 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="4">
@@ -1103,8 +1139,12 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="4">
@@ -1142,8 +1182,12 @@
       <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="4">
@@ -1181,8 +1225,12 @@
       <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="4">
@@ -1220,8 +1268,12 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="4">
@@ -1259,8 +1311,12 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="4">
@@ -1298,8 +1354,12 @@
       <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="4">

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF39BB8-BD4A-4848-9B1B-C0758D297921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C98E25-3CB9-413E-ACFC-6BC91BF8669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="198" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,8 +758,12 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
       <c r="O9" s="4">
         <f>SUM(C9:J9)/12</f>
         <v>0.58333333333333337</v>
@@ -801,8 +805,12 @@
       <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
       <c r="O10" s="4">
         <f t="shared" ref="O10:O21" si="0">SUM(C10:J10)/12</f>
         <v>0.58333333333333337</v>
@@ -844,8 +852,12 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -887,8 +899,12 @@
       <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -930,8 +946,12 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -973,8 +993,12 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -1016,8 +1040,12 @@
       <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1059,8 +1087,12 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1102,8 +1134,12 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -1145,8 +1181,12 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -1188,8 +1228,12 @@
       <c r="L19" s="1">
         <v>1</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -1231,8 +1275,12 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1274,8 +1322,12 @@
       <c r="L21" s="1">
         <v>1</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -1317,8 +1369,12 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="4">
         <f t="shared" ref="O22:O23" si="1">SUM(C22:J22)/12</f>
         <v>0.58333333333333337</v>
@@ -1360,8 +1416,12 @@
       <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
       <c r="O23" s="4">
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C98E25-3CB9-413E-ACFC-6BC91BF8669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B5494-5BA1-4906-9A7E-135B36DD776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidad 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -117,6 +118,15 @@
   </si>
   <si>
     <t>OLIVARES SOLIS JOSÉ MANUEL</t>
+  </si>
+  <si>
+    <t>Desarrollo de interfaces</t>
+  </si>
+  <si>
+    <t>DE JESUS TECPILE RENE</t>
+  </si>
+  <si>
+    <t>MARTIENES MARQUEZ JUAN MIGUEL</t>
   </si>
 </sst>
 </file>
@@ -557,25 +567,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="7.21875" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" customWidth="1"/>
+    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -596,9 +606,8 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -617,9 +626,8 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -630,9 +638,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -643,9 +650,8 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -656,9 +662,8 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -669,9 +674,8 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="49.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -689,43 +693,40 @@
         <v>44959</v>
       </c>
       <c r="G8" s="2">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="H8" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="I8" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="J8" s="2">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="K8" s="2">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="L8" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="M8" s="2">
-        <v>44972</v>
-      </c>
-      <c r="N8" s="2">
         <v>44973</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -742,7 +743,9 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
@@ -756,23 +759,20 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM(C9:J9)/12</f>
-        <v>0.58333333333333337</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/11</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -789,7 +789,9 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
@@ -797,29 +799,26 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" ref="O10:O21" si="0">SUM(C10:J10)/12</f>
-        <v>0.58333333333333337</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N25" si="0">SUM(C10:M10)/11</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -836,7 +835,9 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
@@ -855,18 +856,15 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -883,7 +881,9 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -902,18 +902,15 @@
       <c r="M12" s="1">
         <v>1</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -930,7 +927,9 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
@@ -941,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -949,18 +948,15 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -977,7 +973,9 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
@@ -985,29 +983,26 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1019,9 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
@@ -1038,23 +1035,20 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1065,9 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -1085,23 +1081,20 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1118,7 +1111,9 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
@@ -1126,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1137,18 +1132,15 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1165,7 +1157,9 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1184,18 +1178,15 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1203,9 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
@@ -1231,18 +1224,15 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1249,9 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
@@ -1267,29 +1259,26 @@
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1306,7 +1295,9 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
@@ -1325,18 +1316,15 @@
       <c r="M21" s="1">
         <v>1</v>
       </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1341,9 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
@@ -1364,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -1372,18 +1362,15 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" ref="O22:O23" si="1">SUM(C22:J22)/12</f>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1387,9 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
@@ -1414,26 +1403,113 @@
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
+  <mergeCells count="23">
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1441,25 +1517,29 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{EFADB86E-F19A-4D6D-9AE6-50CFB8436D78}">
+          <x14:cfRule type="iconSet" priority="4" id="{EFADB86E-F19A-4D6D-9AE6-50CFB8436D78}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1475,7 +1555,664 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:N23</xm:sqref>
+          <xm:sqref>C9:M23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{624F7479-F0F2-4581-AAEF-37D5D3AC6C04}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C24:M25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6227E3EE-48BA-4486-B75D-8528501FB632}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>44977</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:N23" si="1">SUM(C22:I22)/12</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{1BAB13DF-467E-4ED0-9FE0-33638EB53098}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B5494-5BA1-4906-9A7E-135B36DD776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA015F3-F0BF-491B-9B81-D5D7E40F5B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -1510,13 +1510,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A14:B14"/>
@@ -1533,6 +1526,13 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6227E3EE-48BA-4486-B75D-8528501FB632}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,10 +1700,18 @@
       <c r="C8" s="2">
         <v>44977</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="2">
+        <v>44978</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44979</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44980</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44984</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1731,10 +1739,18 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1743,7 +1759,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1757,10 +1773,18 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1769,7 +1793,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1783,10 +1807,18 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1795,7 +1827,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1809,10 +1841,18 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1821,7 +1861,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1835,10 +1875,18 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1861,10 +1909,18 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1873,7 +1929,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1887,10 +1943,18 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1899,7 +1963,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1913,10 +1977,18 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1925,7 +1997,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1939,10 +2011,18 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1965,10 +2045,18 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1991,10 +2079,18 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2003,7 +2099,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2017,10 +2113,18 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2043,10 +2147,18 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2055,7 +2167,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2069,10 +2181,18 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2095,10 +2215,18 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2107,7 +2235,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2121,10 +2249,18 @@
       <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2133,7 +2269,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2147,10 +2283,18 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2167,12 +2311,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2185,11 +2328,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA015F3-F0BF-491B-9B81-D5D7E40F5B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968E45D-9183-4B9F-A20F-89421FE5FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>MARTIENES MARQUEZ JUAN MIGUEL</t>
+  </si>
+  <si>
+    <t>CASTILLO ALBERTO OCTAVIO</t>
   </si>
 </sst>
 </file>
@@ -567,20 +570,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="105" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="Q9" sqref="Q9:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
@@ -770,11 +773,13 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="1">
@@ -802,25 +807,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" ref="N10:N25" si="0">SUM(C10:M10)/11</f>
-        <v>0.81818181818181823</v>
+        <f>SUM(C10:M10)/11</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="1">
@@ -845,28 +852,30 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="N11:N26" si="0">SUM(C11:M11)/11</f>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="1">
@@ -908,11 +917,13 @@
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="1">
@@ -940,25 +951,27 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="1">
@@ -983,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1000,15 +1013,17 @@
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1029,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1038,19 +1053,21 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="1">
@@ -1092,15 +1109,17 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1121,28 +1140,30 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="1">
@@ -1184,11 +1205,13 @@
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="1">
@@ -1213,35 +1236,37 @@
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1259,35 +1284,37 @@
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1305,28 +1332,30 @@
         <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="1">
@@ -1354,25 +1383,27 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="1">
@@ -1400,29 +1431,31 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1449,38 +1482,40 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="0"/>
-        <v>1.0909090909090908</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -1498,21 +1533,71 @@
         <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="24">
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -1520,19 +1605,20 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1555,7 +1641,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M23</xm:sqref>
+          <xm:sqref>C9:M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{624F7479-F0F2-4581-AAEF-37D5D3AC6C04}">
@@ -1574,7 +1660,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C24:M25</xm:sqref>
+          <xm:sqref>C25:M26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1587,17 +1673,17 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
@@ -1712,7 +1798,9 @@
       <c r="G8" s="2">
         <v>44984</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>44987</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1751,7 +1839,9 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1759,7 +1849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1785,7 +1875,9 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1793,7 +1885,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1819,7 +1911,9 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1827,7 +1921,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1853,7 +1947,9 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1861,7 +1957,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1887,7 +1983,9 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1921,7 +2019,9 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1955,7 +2055,9 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1963,7 +2065,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1989,7 +2091,9 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1997,7 +2101,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2023,7 +2127,9 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2057,7 +2163,9 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2091,7 +2199,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2099,7 +2209,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2125,7 +2235,9 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2133,7 +2245,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2159,7 +2271,9 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2167,7 +2281,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2193,7 +2307,9 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2227,7 +2343,9 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2235,7 +2353,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2261,7 +2379,9 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2269,7 +2389,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2295,7 +2415,9 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968E45D-9183-4B9F-A20F-89421FE5FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE954B3D-3602-41F8-B659-BD357D9F703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -576,19 +576,19 @@
       <selection activeCell="Q9" sqref="Q9:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -630,7 +630,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -777,7 +777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -873,7 +873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -921,7 +921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -969,7 +969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1595,6 +1595,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1611,14 +1619,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1673,22 +1673,22 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1730,7 +1730,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1801,9 @@
       <c r="H8" s="2">
         <v>44987</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>44991</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1819,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1842,20 +1844,22 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1878,20 +1882,22 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1914,20 +1920,22 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1950,20 +1958,22 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1986,7 +1996,9 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1999,7 +2011,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2034,9 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2035,7 +2049,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2072,9 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2071,7 +2087,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2094,20 +2110,22 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2148,9 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2143,7 +2163,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2166,7 +2186,9 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2179,7 +2201,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +2224,9 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2215,7 +2239,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2238,20 +2262,22 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2274,20 +2300,22 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -2310,7 +2338,9 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2323,7 +2353,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2346,20 +2376,22 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2382,20 +2414,22 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2418,7 +2452,9 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2433,11 +2469,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2450,12 +2487,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE954B3D-3602-41F8-B659-BD357D9F703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687F0C9-4707-4CF4-AEE9-B08BADA0280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="36" yWindow="12" windowWidth="20484" windowHeight="10788" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
     <sheet name="Unidad 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unidad 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -576,19 +577,19 @@
       <selection activeCell="Q9" sqref="Q9:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -610,7 +611,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -630,7 +631,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -642,7 +643,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +655,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -666,7 +667,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -678,7 +679,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -729,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -777,7 +778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -825,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -873,7 +874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -921,7 +922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -969,7 +970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1595,14 +1596,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1619,6 +1612,14 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1672,23 +1673,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6227E3EE-48BA-4486-B75D-8528501FB632}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1711,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1730,7 +1731,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1743,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1755,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1767,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1779,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1805,9 @@
       <c r="I8" s="2">
         <v>44991</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>44998</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1821,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1847,7 +1850,9 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1859,7 +1864,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1890,9 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1897,7 +1904,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1923,7 +1930,9 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1935,7 +1944,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +1970,9 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1973,7 +1984,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1999,7 +2010,9 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2011,7 +2024,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2050,9 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2049,7 +2064,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2090,9 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2087,7 +2104,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +2130,9 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2125,7 +2144,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2170,9 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2163,7 +2184,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +2210,9 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2201,7 +2224,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2227,7 +2250,9 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2239,7 +2264,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2290,9 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2277,7 +2304,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2330,9 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2315,7 +2344,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +2370,9 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2353,7 +2384,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +2410,9 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2391,7 +2424,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2417,7 +2450,9 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2429,7 +2464,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2455,7 +2490,9 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2469,12 +2506,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2487,11 +2523,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2520,4 +2557,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92998D05-4D24-4598-844C-3698CB761366}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687F0C9-4707-4CF4-AEE9-B08BADA0280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8BFBA-1AFE-421A-9D7F-9D3D7F259630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="12" windowWidth="20484" windowHeight="10788" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>CASTILLO ALBERTO OCTAVIO</t>
+  </si>
+  <si>
+    <t>Integración de Base de datos</t>
   </si>
 </sst>
 </file>
@@ -1596,6 +1599,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1612,14 +1623,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1674,7 +1677,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,11 +2509,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2523,12 +2527,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2561,12 +2564,638 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92998D05-4D24-4598-844C-3698CB761366}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>44999</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:N23" si="1">SUM(C22:I22)/12</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{7612F1BD-C28D-40EB-8994-01BBF46E8426}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8BFBA-1AFE-421A-9D7F-9D3D7F259630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9AC61E-E25B-4E9B-B9DD-F68DDD6011AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -1599,14 +1599,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1623,6 +1615,14 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2509,12 +2509,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2527,11 +2526,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2567,7 +2567,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,7 +2680,9 @@
       <c r="C8" s="2">
         <v>44999</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>45000</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2711,7 +2713,9 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2723,7 +2727,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2737,7 +2741,9 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2749,7 +2755,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2763,7 +2769,9 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2775,7 +2783,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2789,7 +2797,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2801,7 +2811,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2815,7 +2825,9 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2841,7 +2853,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2853,7 +2867,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2867,7 +2881,9 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2879,7 +2895,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2893,7 +2909,9 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2905,7 +2923,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2919,7 +2937,9 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2945,7 +2965,9 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2971,7 +2993,9 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2983,7 +3007,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2997,7 +3021,9 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3009,7 +3035,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3023,7 +3049,9 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3035,7 +3063,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3049,7 +3077,9 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3075,7 +3105,9 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3087,7 +3119,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3101,7 +3133,9 @@
       <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3113,7 +3147,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3127,7 +3161,9 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3147,16 +3183,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3164,12 +3196,16 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9AC61E-E25B-4E9B-B9DD-F68DDD6011AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C037C8-3B83-4645-AEEF-E0983A76DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6227E3EE-48BA-4486-B75D-8528501FB632}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,9 +1811,15 @@
       <c r="J8" s="2">
         <v>44998</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2">
+        <v>44999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45001</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1856,9 +1862,15 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
         <v>0.58333333333333337</v>
@@ -1896,9 +1908,15 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1936,9 +1954,15 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -1976,9 +2000,15 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -2016,9 +2046,15 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2056,9 +2092,15 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -2096,9 +2138,15 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -2136,9 +2184,15 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -2176,9 +2230,15 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2216,9 +2276,15 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2256,9 +2322,15 @@
       <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -2296,9 +2368,15 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -2336,9 +2414,15 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
@@ -2376,9 +2460,15 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
       <c r="N22" s="4">
         <f t="shared" ref="N22:N23" si="1">SUM(C22:I22)/12</f>
         <v>0</v>
@@ -2416,9 +2506,15 @@
       <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
@@ -2456,9 +2552,15 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
         <v>0.58333333333333337</v>
@@ -2496,9 +2598,15 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
       <c r="N25" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2538,7 +2646,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{1BAB13DF-467E-4ED0-9FE0-33638EB53098}">
+          <x14:cfRule type="iconSet" priority="2" id="{1BAB13DF-467E-4ED0-9FE0-33638EB53098}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2554,7 +2662,26 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:M25</xm:sqref>
+          <xm:sqref>C9:J25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A68D8329-D63F-40FE-9E5C-9E529F23D391}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K9:M25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2566,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92998D05-4D24-4598-844C-3698CB761366}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,11 +2805,9 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="2">
-        <v>44999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45000</v>
-      </c>
+        <v>45006</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2713,9 +2838,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2727,7 +2850,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2739,11 +2862,9 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2769,9 +2890,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2783,7 +2902,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2797,9 +2916,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2811,7 +2928,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2825,9 +2942,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2853,9 +2968,7 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2867,7 +2980,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2881,9 +2994,7 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2895,7 +3006,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2907,11 +3018,9 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2937,9 +3046,7 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2965,9 +3072,7 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2993,9 +3098,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3007,7 +3110,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3021,9 +3124,7 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3035,7 +3136,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3049,9 +3150,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3063,7 +3162,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3077,9 +3176,7 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3105,9 +3202,7 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3119,7 +3214,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3131,11 +3226,9 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3147,7 +3240,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.25</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3161,9 +3254,7 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C037C8-3B83-4645-AEEF-E0983A76DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438FBBC6-8E16-4260-89BA-C89E5FCBF117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2807,8 +2807,12 @@
       <c r="C8" s="2">
         <v>45006</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>45007</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45012</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2838,8 +2842,12 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2850,7 +2858,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2864,8 +2872,12 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2876,7 +2888,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2890,8 +2902,12 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2902,7 +2918,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2916,8 +2932,12 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2928,7 +2948,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2942,8 +2962,12 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2968,8 +2992,12 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2980,7 +3008,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2994,8 +3022,12 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3006,7 +3038,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3020,8 +3052,12 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3032,7 +3068,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3046,8 +3082,12 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3072,8 +3112,12 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3098,8 +3142,12 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3110,7 +3158,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3124,8 +3172,12 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3136,7 +3188,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3150,8 +3202,12 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3162,7 +3218,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3176,8 +3232,12 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3202,8 +3262,12 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3214,7 +3278,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3228,8 +3292,12 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3240,7 +3308,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3254,8 +3322,12 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438FBBC6-8E16-4260-89BA-C89E5FCBF117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED7897-536F-4E9F-9C7D-3ED355520288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Integración de Base de datos</t>
+  </si>
+  <si>
+    <t>30/0#/2023</t>
   </si>
 </sst>
 </file>
@@ -1599,6 +1602,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1615,14 +1626,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2617,11 +2620,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2634,12 +2638,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2694,7 +2697,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2813,9 +2816,15 @@
       <c r="E8" s="2">
         <v>45012</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2">
+        <v>45014</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45033</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2848,9 +2857,15 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2858,7 +2873,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>0.25</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2878,9 +2893,15 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2888,7 +2909,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2908,9 +2929,15 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2918,7 +2945,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2938,9 +2965,15 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2948,7 +2981,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2968,9 +3001,15 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2998,9 +3037,15 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3028,9 +3073,15 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3058,9 +3109,15 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3068,7 +3125,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3088,9 +3145,15 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3118,9 +3181,15 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3148,9 +3217,15 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3158,7 +3233,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3178,9 +3253,15 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3188,7 +3269,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3208,9 +3289,15 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3218,7 +3305,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3238,9 +3325,15 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3268,9 +3361,15 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3278,7 +3377,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3298,9 +3397,15 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3308,7 +3413,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3328,9 +3433,15 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3346,12 +3457,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3364,11 +3474,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED7897-536F-4E9F-9C7D-3ED355520288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B16426-4517-4347-8B29-78B7EC7B38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -1602,14 +1602,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1626,6 +1618,14 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2620,12 +2620,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2638,11 +2637,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2697,7 +2697,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,7 +2825,9 @@
       <c r="H8" s="2">
         <v>45033</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>45034</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2866,7 +2868,9 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2902,14 +2906,16 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2938,7 +2944,9 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2974,14 +2982,16 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3010,7 +3020,9 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3046,7 +3058,9 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3082,7 +3096,9 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3118,7 +3134,9 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3154,7 +3172,9 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3190,7 +3210,9 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3226,7 +3248,9 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3262,7 +3286,9 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3298,14 +3324,16 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3334,7 +3362,9 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3370,14 +3400,16 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3406,14 +3438,16 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3442,7 +3476,9 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3457,11 +3493,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3474,12 +3511,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B16426-4517-4347-8B29-78B7EC7B38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E7274-CFCF-4397-959F-524266AA88A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -583,19 +583,19 @@
       <selection activeCell="Q9" sqref="Q9:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -637,7 +637,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -784,7 +784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -880,7 +880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -928,7 +928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -976,7 +976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1602,6 +1602,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1618,14 +1626,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1683,19 +1683,19 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1737,7 +1737,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2620,11 +2620,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2637,12 +2638,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2696,23 +2696,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92998D05-4D24-4598-844C-3698CB761366}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2754,7 +2754,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2828,9 @@
       <c r="I8" s="2">
         <v>45034</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>45036</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2845,7 +2847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2871,7 +2873,9 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2883,7 +2887,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2909,7 +2913,9 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2921,7 +2927,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2947,7 +2953,9 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2959,7 +2967,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2985,7 +2993,9 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2997,7 +3007,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3033,9 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3035,7 +3047,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3073,9 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3073,7 +3087,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3113,9 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -3111,7 +3127,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3137,7 +3153,9 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3149,7 +3167,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3175,7 +3193,9 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -3187,7 +3207,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3233,9 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -3225,7 +3247,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3273,9 @@
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3263,7 +3287,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3289,7 +3313,9 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3301,7 +3327,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3327,7 +3353,9 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3339,7 +3367,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3365,7 +3393,9 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3377,7 +3407,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -3403,7 +3433,9 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3415,7 +3447,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -3441,7 +3473,9 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3453,7 +3487,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -3479,7 +3513,9 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3493,12 +3529,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3511,11 +3546,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E7274-CFCF-4397-959F-524266AA88A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BDC75-3ECB-4982-8564-9DCAD2035694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
     <sheet name="Unidad 2" sheetId="2" r:id="rId2"/>
     <sheet name="Unidad 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Unidad 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>30/0#/2023</t>
+  </si>
+  <si>
+    <t>API Development</t>
   </si>
 </sst>
 </file>
@@ -583,19 +587,19 @@
       <selection activeCell="Q9" sqref="Q9:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -617,7 +621,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -637,7 +641,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -649,7 +653,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -661,7 +665,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -673,7 +677,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -685,7 +689,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -736,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -784,7 +788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -832,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -880,7 +884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -928,7 +932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -976,7 +980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1683,19 +1687,19 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1721,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1737,7 +1741,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1753,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1765,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1777,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1789,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1886,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1928,7 +1932,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1974,7 +1978,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +2024,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2070,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2116,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2162,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2208,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2250,7 +2254,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2296,7 +2300,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2342,7 +2346,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +2392,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2484,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2530,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2572,7 +2576,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2696,23 +2700,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92998D05-4D24-4598-844C-3698CB761366}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2738,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2754,7 +2758,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2766,7 +2770,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2778,7 +2782,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2794,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2806,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2967,7 +2971,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3007,7 +3011,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3051,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3091,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3127,7 +3131,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3167,7 +3171,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3211,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3247,7 +3251,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3327,7 +3331,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3367,7 +3371,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3407,7 +3411,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -3447,7 +3451,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -3487,7 +3491,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -3580,4 +3584,678 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F64C2-8C09-41D3-92F6-34E32BB0396C}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>45040</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45048</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:N23" si="1">SUM(C22:I22)/12</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{24175BE2-3731-4B4D-B872-C48850D40CDA}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:M25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/APP Hibridas/LISTA DE ASISTENCIA.xlsx
+++ b/APP Hibridas/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\APP Hibridas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BDC75-3ECB-4982-8564-9DCAD2035694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4565A94-5B86-4CAB-9B7B-ECB14DF028FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -587,19 +587,19 @@
       <selection activeCell="Q9" sqref="Q9:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -641,7 +641,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -788,7 +788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -884,7 +884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -932,7 +932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -980,7 +980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1606,14 +1606,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
@@ -1630,6 +1622,14 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1687,19 +1687,19 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1741,7 +1741,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2624,12 +2624,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -2642,11 +2641,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2704,19 +2704,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2758,7 +2758,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -3533,11 +3533,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3550,12 +3551,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3590,23 +3590,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F64C2-8C09-41D3-92F6-34E32BB0396C}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3648,7 +3648,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3707,9 @@
       <c r="D8" s="2">
         <v>45048</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>45050</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3729,7 +3731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -3740,7 +3742,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3751,13 +3755,13 @@
       <c r="M9" s="1"/>
       <c r="N9" s="4">
         <f t="shared" ref="N9:N21" si="0">SUM(C9:I9)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3768,7 +3772,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3779,13 +3785,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3796,7 +3802,9 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3807,13 +3815,13 @@
       <c r="M11" s="1"/>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3824,7 +3832,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3835,13 +3845,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -3852,7 +3862,9 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3869,7 +3881,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3880,7 +3892,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3897,7 +3911,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3922,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3919,13 +3935,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3936,7 +3952,9 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3947,13 +3965,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3964,7 +3982,9 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3981,7 +4001,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3992,7 +4012,9 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4009,7 +4031,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -4020,7 +4042,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4031,13 +4055,13 @@
       <c r="M19" s="1"/>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4048,7 +4072,9 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4059,13 +4085,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -4076,7 +4102,9 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4087,13 +4115,13 @@
       <c r="M21" s="1"/>
       <c r="N21" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -4104,7 +4132,9 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4121,7 +4151,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -4132,7 +4162,9 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4143,13 +4175,13 @@
       <c r="M23" s="1"/>
       <c r="N23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -4160,7 +4192,9 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4171,13 +4205,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="4">
         <f t="shared" ref="N24:N25" si="2">SUM(C24:I24)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -4188,7 +4222,9 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4207,12 +4243,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -4225,11 +4260,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
